--- a/MyCProgram/近期工作/CCTV/Premiere_问题跟进.xlsx
+++ b/MyCProgram/近期工作/CCTV/Premiere_问题跟进.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,6 +103,54 @@
   </si>
   <si>
     <t>premiere上载需要看到进度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKAROUND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛远桥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛远桥、姚航军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张兴亮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点TM里任务跳转到素材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛远桥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾晶晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛远桥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张兴亮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -293,6 +341,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -303,12 +367,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -350,7 +417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,7 +452,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -609,12 +676,15 @@
     <col min="5" max="5" width="7.625" style="22" customWidth="1"/>
     <col min="6" max="6" width="9" style="24"/>
     <col min="7" max="7" width="9" style="22"/>
-    <col min="8" max="8" width="32.625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="22" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="22"/>
+    <col min="10" max="11" width="9" style="22"/>
+    <col min="12" max="12" width="14.125" style="33" customWidth="1"/>
+    <col min="13" max="13" width="20.625" style="22" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,8 +715,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="25" t="s">
         <v>10</v>
@@ -661,8 +737,14 @@
       <c r="H2" s="6"/>
       <c r="I2" s="10"/>
       <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="32">
+        <v>43218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="25" t="s">
         <v>10</v>
@@ -677,8 +759,14 @@
       <c r="H3" s="6"/>
       <c r="I3" s="10"/>
       <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="K3" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="32">
+        <v>43238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="25" t="s">
         <v>10</v>
@@ -693,8 +781,12 @@
       <c r="H4" s="6"/>
       <c r="I4" s="10"/>
       <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="36"/>
+      <c r="L4" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="25" t="s">
         <v>10</v>
@@ -709,8 +801,12 @@
       <c r="H5" s="6"/>
       <c r="I5" s="10"/>
       <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="K5" s="36"/>
+      <c r="L5" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="25" t="s">
         <v>10</v>
@@ -725,8 +821,12 @@
       <c r="H6" s="6"/>
       <c r="I6" s="10"/>
       <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="36"/>
+      <c r="L6" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="25" t="s">
         <v>10</v>
@@ -738,11 +838,19 @@
       <c r="E7" s="6"/>
       <c r="F7" s="11"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="I7" s="10"/>
       <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="32">
+        <v>43251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="25" t="s">
         <v>10</v>
@@ -757,8 +865,14 @@
       <c r="H8" s="6"/>
       <c r="I8" s="10"/>
       <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="32">
+        <v>43231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="25" t="s">
         <v>10</v>
@@ -773,8 +887,14 @@
       <c r="H9" s="6"/>
       <c r="I9" s="10"/>
       <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="K9" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="32">
+        <v>43231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="25" t="s">
         <v>10</v>
@@ -789,8 +909,14 @@
       <c r="H10" s="6"/>
       <c r="I10" s="10"/>
       <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="32">
+        <v>43238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="25" t="s">
         <v>10</v>
@@ -805,8 +931,14 @@
       <c r="H11" s="6"/>
       <c r="I11" s="10"/>
       <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="32">
+        <v>43251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="25" t="s">
         <v>10</v>
@@ -819,8 +951,9 @@
       <c r="H12" s="6"/>
       <c r="I12" s="10"/>
       <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="25" t="s">
         <v>10</v>
@@ -833,8 +966,9 @@
       <c r="H13" s="6"/>
       <c r="I13" s="10"/>
       <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="25" t="s">
         <v>10</v>
@@ -847,8 +981,9 @@
       <c r="H14" s="6"/>
       <c r="I14" s="10"/>
       <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="25" t="s">
         <v>10</v>
@@ -861,8 +996,9 @@
       <c r="H15" s="6"/>
       <c r="I15" s="10"/>
       <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="25" t="s">
         <v>10</v>
@@ -875,8 +1011,9 @@
       <c r="H16" s="6"/>
       <c r="I16" s="10"/>
       <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="25" t="s">
         <v>10</v>
@@ -889,8 +1026,9 @@
       <c r="H17" s="6"/>
       <c r="I17" s="10"/>
       <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="25" t="s">
         <v>10</v>
@@ -903,8 +1041,9 @@
       <c r="H18" s="6"/>
       <c r="I18" s="10"/>
       <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="25" t="s">
         <v>10</v>
@@ -917,8 +1056,9 @@
       <c r="H19" s="6"/>
       <c r="I19" s="10"/>
       <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="25" t="s">
         <v>10</v>
@@ -931,8 +1071,9 @@
       <c r="H20" s="6"/>
       <c r="I20" s="10"/>
       <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="25" t="s">
         <v>10</v>
@@ -945,8 +1086,9 @@
       <c r="H21" s="6"/>
       <c r="I21" s="10"/>
       <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
@@ -957,8 +1099,9 @@
       <c r="H22" s="12"/>
       <c r="I22" s="10"/>
       <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
@@ -969,8 +1112,9 @@
       <c r="H23" s="6"/>
       <c r="I23" s="10"/>
       <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -981,8 +1125,9 @@
       <c r="H24" s="6"/>
       <c r="I24" s="10"/>
       <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
@@ -993,8 +1138,9 @@
       <c r="H25" s="6"/>
       <c r="I25" s="10"/>
       <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
@@ -1005,8 +1151,9 @@
       <c r="H26" s="6"/>
       <c r="I26" s="10"/>
       <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
@@ -1017,8 +1164,9 @@
       <c r="H27" s="6"/>
       <c r="I27" s="10"/>
       <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="28"/>
       <c r="C28" s="8"/>
@@ -1029,8 +1177,9 @@
       <c r="H28" s="13"/>
       <c r="I28" s="10"/>
       <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="37"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="28"/>
       <c r="C29" s="8"/>
@@ -1041,8 +1190,9 @@
       <c r="H29" s="13"/>
       <c r="I29" s="10"/>
       <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="37"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="28"/>
       <c r="C30" s="8"/>
@@ -1053,8 +1203,9 @@
       <c r="H30" s="13"/>
       <c r="I30" s="10"/>
       <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="37"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="29"/>
       <c r="B31" s="28"/>
       <c r="C31" s="8"/>
@@ -1065,8 +1216,9 @@
       <c r="H31" s="13"/>
       <c r="I31" s="10"/>
       <c r="J31" s="13"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="37"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="28"/>
       <c r="C32" s="8"/>
@@ -1077,8 +1229,9 @@
       <c r="H32" s="13"/>
       <c r="I32" s="10"/>
       <c r="J32" s="13"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="37"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="28"/>
       <c r="C33" s="8"/>
@@ -1089,8 +1242,9 @@
       <c r="H33" s="13"/>
       <c r="I33" s="10"/>
       <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="37"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="28"/>
       <c r="C34" s="8"/>
@@ -1101,8 +1255,9 @@
       <c r="H34" s="13"/>
       <c r="I34" s="10"/>
       <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="37"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="28"/>
       <c r="C35" s="8"/>
@@ -1113,8 +1268,9 @@
       <c r="H35" s="13"/>
       <c r="I35" s="10"/>
       <c r="J35" s="13"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="37"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="28"/>
       <c r="C36" s="8"/>
@@ -1125,8 +1281,9 @@
       <c r="H36" s="13"/>
       <c r="I36" s="10"/>
       <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="37"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="28"/>
       <c r="C37" s="8"/>
@@ -1137,8 +1294,9 @@
       <c r="H37" s="13"/>
       <c r="I37" s="10"/>
       <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K37" s="37"/>
+    </row>
+    <row r="38" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="28"/>
       <c r="C38" s="17"/>
@@ -1149,8 +1307,10 @@
       <c r="H38" s="16"/>
       <c r="I38" s="19"/>
       <c r="J38" s="16"/>
-    </row>
-    <row r="39" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K38" s="38"/>
+      <c r="L38" s="34"/>
+    </row>
+    <row r="39" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="28"/>
       <c r="C39" s="8"/>
@@ -1161,8 +1321,9 @@
       <c r="H39" s="20"/>
       <c r="I39" s="10"/>
       <c r="J39" s="13"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="37"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="28"/>
       <c r="C40" s="8"/>
@@ -1173,6 +1334,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="10"/>
       <c r="J40" s="13"/>
+      <c r="K40" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1184,6 +1346,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
